--- a/template/invoiceTem9.xlsx
+++ b/template/invoiceTem9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51210D13-DB48-C249-B618-9FFC6910D961}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F67D3-F3D1-0D45-A884-EFB008DAA8FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="540" windowWidth="37380" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14.10.15" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>IRONDALE FASHION INTERNATIONAL LIMITED</t>
   </si>
@@ -119,10 +119,6 @@
     <t>For payments by ways of chats transfer or remittance, please credit the amount into DSB’s account number 040-774-77700139 (Swift Code: DSBAHKHH).</t>
   </si>
   <si>
-    <t>2121</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>The right to receive payment of this invoice has been assigned to DAH SING BANK, LIMITED (“DSB”).  Payment must be made to DSB to constitute a valid discharge of your indebtedness of this invoice.  Please notify DSB immediately if any content of this invoice is found to be incorrect.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,11 +136,13 @@
     <font>
       <sz val="14"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -339,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,53 +413,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +461,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,7 +520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -826,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -843,20 +835,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -873,20 +865,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -903,20 +895,20 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -933,20 +925,20 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1053,13 +1045,13 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
@@ -1081,13 +1073,13 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
@@ -1109,13 +1101,13 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="12"/>
       <c r="I10" s="18" t="s">
         <v>7</v>
@@ -1139,17 +1131,17 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="12"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="40"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="12"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1167,13 +1159,13 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="12"/>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
@@ -1195,13 +1187,13 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="12"/>
       <c r="I13" s="18" t="s">
         <v>8</v>
@@ -1509,10 +1501,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="26" t="s">
         <v>23</v>
       </c>
@@ -1586,7 +1578,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="71"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1611,10 +1603,10 @@
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="31"/>
-      <c r="L26" s="68"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1631,18 +1623,18 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="69"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1659,18 +1651,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="70"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="51"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1687,18 +1679,18 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="70"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1715,18 +1707,18 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="70"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="51"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1743,18 +1735,18 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="70"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -1782,9 +1774,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
-      <c r="L32" s="72" t="s">
-        <v>32</v>
-      </c>
+      <c r="L32" s="53"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -1812,7 +1802,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
-      <c r="L33" s="73"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2063,8 +2053,8 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="I42" s="16"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -2091,8 +2081,8 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="66"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -2113,20 +2103,20 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55" t="s">
-        <v>33</v>
+      <c r="A44" s="59" t="s">
+        <v>32</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -2143,20 +2133,20 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="61"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -2173,20 +2163,20 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="57"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="61"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -28608,6 +28598,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A45:L45"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -28615,12 +28611,6 @@
     <mergeCell ref="A8:D13"/>
     <mergeCell ref="E8:G13"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/template/invoiceTem9.xlsx
+++ b/template/invoiceTem9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19219AE2-4D03-41A6-A67C-FD6E5B8B855F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6F47F-DE9E-4A85-8351-F8C3E4D4046B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Page:</t>
-  </si>
-  <si>
     <t>Vessel/ Freight:</t>
   </si>
   <si>
@@ -109,6 +106,10 @@
   </si>
   <si>
     <t>For payments by ways of chats transfer or remittance, please credit the amount into DSB’s account number 040-774-77700139 (Swift Code: DSBAHKHH).</t>
+  </si>
+  <si>
+    <t>Page:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,18 +427,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -446,6 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +451,17 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -744,66 +745,66 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="62"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="63"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="63"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="63"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1"/>
@@ -854,42 +855,42 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="15" t="s">
         <v>3</v>
       </c>
@@ -898,44 +899,44 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="54"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="15" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -971,27 +972,27 @@
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="9"/>
     </row>
@@ -1003,11 +1004,11 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="17"/>
@@ -1031,23 +1032,23 @@
     </row>
     <row r="19" spans="1:12" ht="15">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="5"/>
@@ -1097,28 +1098,28 @@
     </row>
     <row r="23" spans="1:12" ht="15">
       <c r="A23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="53" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="23" t="s">
-        <v>19</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>21</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15">
@@ -1131,7 +1132,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -1379,15 +1380,15 @@
     </row>
     <row r="42" spans="1:12" ht="15">
       <c r="A42" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="13"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
@@ -1400,60 +1401,60 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="58"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="15">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="55"/>
+    </row>
+    <row r="45" spans="1:12" ht="15">
+      <c r="A45" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
-    </row>
-    <row r="45" spans="1:12" ht="15">
-      <c r="A45" s="59" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="55"/>
+    </row>
+    <row r="46" spans="1:12" ht="15">
+      <c r="A46" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="61"/>
-    </row>
-    <row r="46" spans="1:12" ht="15">
-      <c r="A46" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="13">
